--- a/Entrada.xlsx
+++ b/Entrada.xlsx
@@ -1021,10 +1021,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4545454545455" defaultRowHeight="18.5" outlineLevelCol="4"/>
@@ -1052,13 +1052,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
+        <v>-20</v>
+      </c>
+      <c r="C2" s="4">
         <v>-10</v>
       </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
       <c r="E2" s="4">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1066,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="4">
+        <v>-15</v>
+      </c>
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
-        <v>20</v>
-      </c>
       <c r="E3" s="4">
-        <v>125</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1080,13 +1080,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
-        <v>50</v>
-      </c>
       <c r="E4" s="4">
-        <v>-4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1094,53 +1094,63 @@
         <v>7</v>
       </c>
       <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
-        <v>75</v>
-      </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="4">
-        <v>17</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="7" spans="5:5">
       <c r="E7" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" s="4">
-        <v>123</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" s="4">
-        <v>18</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" s="4">
-        <v>45</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" s="4">
-        <v>-15</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" s="4">
-        <v>7</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="4">
-        <v>37</v>
+        <v>9.45</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="1">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="1">
+        <v>4.32</v>
       </c>
     </row>
   </sheetData>
